--- a/data/Metadata_Varnachka_new.xlsx
+++ b/data/Metadata_Varnachka_new.xlsx
@@ -1,28 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\16s\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\keyfi\Documents\GitHub\Project\BaikalCommunities\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C76DFB3-7B24-4255-95C1-0D5381F04BBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12705" activeTab="2"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="16S" sheetId="1" r:id="rId1"/>
     <sheet name="18S" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист1" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="225">
   <si>
     <t>UW2/10_5</t>
   </si>
@@ -435,129 +446,6 @@
     <t>Irkutsk-Bash-18s-9</t>
   </si>
   <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>"s</t>
-  </si>
-  <si>
-    <t>",</t>
-  </si>
-  <si>
-    <t>"s1",</t>
-  </si>
-  <si>
-    <t>"s3",</t>
-  </si>
-  <si>
-    <t>"s5",</t>
-  </si>
-  <si>
-    <t>"s7",</t>
-  </si>
-  <si>
-    <t>"s9",</t>
-  </si>
-  <si>
-    <t>"s11",</t>
-  </si>
-  <si>
-    <t>"s13",</t>
-  </si>
-  <si>
-    <t>"s15",</t>
-  </si>
-  <si>
-    <t>"s17",</t>
-  </si>
-  <si>
-    <t>"s19",</t>
-  </si>
-  <si>
-    <t>"s21",</t>
-  </si>
-  <si>
-    <t>"s23",</t>
-  </si>
-  <si>
-    <t>"s25",</t>
-  </si>
-  <si>
-    <t>"s27",</t>
-  </si>
-  <si>
-    <t>"s29",</t>
-  </si>
-  <si>
-    <t>"s31",</t>
-  </si>
-  <si>
-    <t>"s33",</t>
-  </si>
-  <si>
-    <t>"s35",</t>
-  </si>
-  <si>
-    <t>"s37",</t>
-  </si>
-  <si>
-    <t>"s2",</t>
-  </si>
-  <si>
-    <t>"s4",</t>
-  </si>
-  <si>
-    <t>"s6",</t>
-  </si>
-  <si>
-    <t>"s8",</t>
-  </si>
-  <si>
-    <t>"s10",</t>
-  </si>
-  <si>
-    <t>"s12",</t>
-  </si>
-  <si>
-    <t>"s14",</t>
-  </si>
-  <si>
-    <t>"s16",</t>
-  </si>
-  <si>
-    <t>"s18",</t>
-  </si>
-  <si>
-    <t>"s20",</t>
-  </si>
-  <si>
-    <t>"s22",</t>
-  </si>
-  <si>
-    <t>"s24",</t>
-  </si>
-  <si>
-    <t>"s26",</t>
-  </si>
-  <si>
-    <t>"s28",</t>
-  </si>
-  <si>
-    <t>"s30",</t>
-  </si>
-  <si>
-    <t>"s32",</t>
-  </si>
-  <si>
-    <t>"s34",</t>
-  </si>
-  <si>
-    <t>"s36",</t>
-  </si>
-  <si>
-    <t>"s38",</t>
-  </si>
-  <si>
     <t>16s_1</t>
   </si>
   <si>
@@ -820,24 +708,12 @@
   </si>
   <si>
     <t>Irkutsk-Bash-16s-9</t>
-  </si>
-  <si>
-    <t>"s41",</t>
-  </si>
-  <si>
-    <t>"s39"</t>
-  </si>
-  <si>
-    <t>"s42",</t>
-  </si>
-  <si>
-    <t>"s40"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1370,48 +1246,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1427,9 +1303,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1467,7 +1343,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1502,6 +1378,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1537,9 +1430,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1712,11 +1622,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V43"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1801,10 +1711,10 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>61</v>
@@ -1869,10 +1779,10 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>179</v>
+        <v>138</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>63</v>
@@ -1937,10 +1847,10 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>62</v>
@@ -2005,10 +1915,10 @@
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>181</v>
+        <v>140</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>64</v>
@@ -2073,10 +1983,10 @@
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>65</v>
@@ -2141,10 +2051,10 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>66</v>
@@ -2209,10 +2119,10 @@
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>184</v>
+        <v>143</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>67</v>
@@ -2277,13 +2187,13 @@
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>42</v>
@@ -2345,13 +2255,13 @@
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>187</v>
+        <v>146</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>188</v>
+        <v>147</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>42</v>
@@ -2413,10 +2323,10 @@
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>189</v>
+        <v>148</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>68</v>
@@ -2481,10 +2391,10 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>69</v>
@@ -2549,10 +2459,10 @@
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
-        <v>191</v>
+        <v>150</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -2617,10 +2527,10 @@
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
-        <v>192</v>
+        <v>151</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>71</v>
@@ -2685,10 +2595,10 @@
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
-        <v>193</v>
+        <v>152</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>72</v>
@@ -2753,10 +2663,10 @@
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
-        <v>194</v>
+        <v>153</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>73</v>
@@ -2821,10 +2731,10 @@
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
-        <v>195</v>
+        <v>154</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>74</v>
@@ -2889,10 +2799,10 @@
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
-        <v>196</v>
+        <v>155</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>75</v>
@@ -2957,10 +2867,10 @@
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>156</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>76</v>
@@ -3025,10 +2935,10 @@
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>77</v>
@@ -3093,10 +3003,10 @@
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
-        <v>199</v>
+        <v>158</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>78</v>
@@ -3161,10 +3071,10 @@
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
-        <v>200</v>
+        <v>159</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>79</v>
@@ -3229,10 +3139,10 @@
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>80</v>
@@ -3297,10 +3207,10 @@
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
-        <v>202</v>
+        <v>161</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>81</v>
@@ -3365,10 +3275,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>82</v>
@@ -3433,10 +3343,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>83</v>
@@ -3501,10 +3411,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
-        <v>205</v>
+        <v>164</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>84</v>
@@ -3569,10 +3479,10 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>85</v>
@@ -3637,10 +3547,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
-        <v>207</v>
+        <v>166</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>86</v>
@@ -3705,10 +3615,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>87</v>
@@ -3773,10 +3683,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A31" s="1" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>88</v>
@@ -3841,10 +3751,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A32" s="1" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>89</v>
@@ -3909,10 +3819,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A33" s="1" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>90</v>
@@ -3977,10 +3887,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A34" s="1" t="s">
-        <v>212</v>
+        <v>171</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>91</v>
@@ -4045,10 +3955,10 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A35" s="1" t="s">
-        <v>213</v>
+        <v>172</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>92</v>
@@ -4113,10 +4023,10 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A36" s="1" t="s">
-        <v>214</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>93</v>
@@ -4181,10 +4091,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A37" s="1" t="s">
-        <v>215</v>
+        <v>174</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>94</v>
@@ -4249,10 +4159,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>95</v>
@@ -4317,10 +4227,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A39" s="1" t="s">
-        <v>217</v>
+        <v>176</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>96</v>
@@ -4385,10 +4295,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A40" s="1" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>97</v>
@@ -4453,10 +4363,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A41" s="1" t="s">
-        <v>219</v>
+        <v>178</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>98</v>
@@ -4521,10 +4431,10 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
-        <v>220</v>
+        <v>179</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>99</v>
@@ -4589,10 +4499,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.45">
       <c r="A43" s="1" t="s">
-        <v>221</v>
+        <v>180</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>100</v>
@@ -4656,7 +4566,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A5:B45">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:B45">
     <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4665,7 +4575,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X22"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -6313,778 +6223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G43"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" t="str">
-        <f>B1&amp;C1&amp;D1</f>
-        <v>"s1",</v>
-      </c>
-      <c r="G1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E2" s="1" t="str">
-        <f t="shared" ref="E2:G21" si="0">B2&amp;C2&amp;D2</f>
-        <v>"s5",</v>
-      </c>
-      <c r="G2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B3" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="1">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s9",</v>
-      </c>
-      <c r="G3" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B4" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="1">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s13",</v>
-      </c>
-      <c r="G4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="1">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s17",</v>
-      </c>
-      <c r="G5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="1">
-        <v>21</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s21",</v>
-      </c>
-      <c r="G6" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C7" s="1">
-        <v>25</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s25",</v>
-      </c>
-      <c r="G7" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="1">
-        <v>29</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s29",</v>
-      </c>
-      <c r="G8" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C9" s="1">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s33",</v>
-      </c>
-      <c r="G9" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C10" s="1">
-        <v>37</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s37",</v>
-      </c>
-      <c r="G10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C11" s="1">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s41",</v>
-      </c>
-      <c r="G11" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s3",</v>
-      </c>
-      <c r="G12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s7",</v>
-      </c>
-      <c r="G13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="1">
-        <v>11</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s11",</v>
-      </c>
-      <c r="G14" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C15" s="1">
-        <v>15</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s15",</v>
-      </c>
-      <c r="G15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C16" s="1">
-        <v>19</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s19",</v>
-      </c>
-      <c r="G16" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C17" s="1">
-        <v>23</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s23",</v>
-      </c>
-      <c r="G17" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C18" s="1">
-        <v>27</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s27",</v>
-      </c>
-      <c r="G18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B19" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C19" s="1">
-        <v>31</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s31",</v>
-      </c>
-      <c r="G19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B20" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="1">
-        <v>35</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s35",</v>
-      </c>
-      <c r="G20" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="1">
-        <v>39</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>"s39"</v>
-      </c>
-      <c r="G21" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B23" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C23" s="1">
-        <v>2</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E23" s="1" t="str">
-        <f>B23&amp;C23&amp;D23</f>
-        <v>"s2",</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B24" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="1">
-        <v>6</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E24" s="1" t="str">
-        <f t="shared" ref="E24:G43" si="1">B24&amp;C24&amp;D24</f>
-        <v>"s6",</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C25" s="1">
-        <v>10</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E25" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s10",</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B26" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C26" s="1">
-        <v>14</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E26" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s14",</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B27" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C27" s="1">
-        <v>18</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s18",</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B28" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C28" s="1">
-        <v>22</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E28" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s22",</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B29" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E29" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s26",</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B30" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C30" s="1">
-        <v>30</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E30" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s30",</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="1">
-        <v>34</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s34",</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B32" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C32" s="1">
-        <v>38</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E32" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s38",</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B33" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C33" s="1">
-        <v>42</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s42",</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B34" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C34" s="1">
-        <v>4</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E34" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s4",</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C35" s="1">
-        <v>8</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E35" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s8",</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B36" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C36" s="1">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E36" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s12",</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B37" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C37" s="1">
-        <v>16</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E37" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s16",</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B38" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C38" s="1">
-        <v>20</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E38" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s20",</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B39" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C39" s="1">
-        <v>24</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E39" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s24",</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B40" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C40" s="1">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E40" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s28",</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B41" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C41" s="1">
-        <v>32</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E41" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s32",</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B42" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C42" s="1">
-        <v>36</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="E42" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s36",</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B43" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C43" s="1">
-        <v>40</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" s="1" t="str">
-        <f t="shared" si="1"/>
-        <v>"s40"</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -7098,279 +6237,279 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C1" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E1" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G1" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>246</v>
+        <v>205</v>
       </c>
       <c r="C3" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="C4" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="E6" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="C8" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
       <c r="G8" t="s">
-        <v>235</v>
+        <v>194</v>
       </c>
       <c r="I8" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
       <c r="C9" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>223</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>225</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>226</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>227</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>229</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>231</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>236</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>237</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>238</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>245</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>247</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>250</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>251</v>
+        <v>210</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>252</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>253</v>
+        <v>212</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>254</v>
+        <v>213</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>259</v>
+        <v>218</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:A42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A42">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
